--- a/data/trans_camb/P16-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.179146272545611</v>
+        <v>5.979732494129326</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.293440056576451</v>
+        <v>3.967894727046709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.620072616868182</v>
+        <v>8.798394845689229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.944665190998435</v>
+        <v>6.293430062352594</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.493895740941093</v>
+        <v>5.579912422897191</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.550885617999532</v>
+        <v>1.642283678349822</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.660597545747838</v>
+        <v>7.872436750755564</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.413840545516829</v>
+        <v>6.193315197868564</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.816971247792392</v>
+        <v>6.513569688508072</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.72611760721536</v>
+        <v>16.39387541174409</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.85078593269946</v>
+        <v>14.95351449673563</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.00457950134425</v>
+        <v>19.79772027302108</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.64947456789914</v>
+        <v>16.69697135630049</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.40604566708707</v>
+        <v>15.86141054595792</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.84295953472434</v>
+        <v>11.50608557556008</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.45177140354616</v>
+        <v>15.24541255916363</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.95024642603083</v>
+        <v>13.30971193328253</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.10116305422159</v>
+        <v>14.17664553004282</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1409658996120091</v>
+        <v>0.1346408784216419</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.0986748302067784</v>
+        <v>0.09253781572143149</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.208485818388452</v>
+        <v>0.2020330453114254</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1028456553581368</v>
+        <v>0.1059880683443449</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09294084846102224</v>
+        <v>0.09137301115747695</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02632778328023404</v>
+        <v>0.02410868959910847</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.151867310514333</v>
+        <v>0.1556272272674858</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1263578239539304</v>
+        <v>0.1219645624729728</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1347389131934523</v>
+        <v>0.1271809291810151</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4393859514410018</v>
+        <v>0.4233939023635712</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3906858909211726</v>
+        <v>0.3881404305469603</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5216352994956914</v>
+        <v>0.5164468242451133</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3095391121404332</v>
+        <v>0.3123701451313689</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2862174424901358</v>
+        <v>0.2870778325036061</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.22021454902123</v>
+        <v>0.2143348075362244</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3297608368611255</v>
+        <v>0.32749634520966</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2978400520247831</v>
+        <v>0.2837822266153808</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2991626977578167</v>
+        <v>0.3014797624649699</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>6.112763068809246</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.875145522127776</v>
+        <v>3.875145522127788</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>10.23592968448834</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.02248239853074</v>
+        <v>4.270459402750673</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.877439655027667</v>
+        <v>3.503117267073732</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3571004398863176</v>
+        <v>0.427790913222666</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.559313992062953</v>
+        <v>7.530432339610718</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.755453010746508</v>
+        <v>1.853083892269211</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.2210739531855859</v>
+        <v>-0.3235564564833947</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.923510794904198</v>
+        <v>7.133216241439559</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.161428961208701</v>
+        <v>3.618092372869337</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.488197019089969</v>
+        <v>1.447332601412964</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.0577941137057</v>
+        <v>13.46360156720031</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.3466762897599</v>
+        <v>12.63142940854878</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.696037714563181</v>
+        <v>9.864334793818513</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.12045935557096</v>
+        <v>15.93424888552874</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.31670904095122</v>
+        <v>10.1280922596738</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.002378916260234</v>
+        <v>7.9591382428919</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.33873350693818</v>
+        <v>13.35570659678515</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.03443725273906</v>
+        <v>10.06131983420745</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.939970265076765</v>
+        <v>7.947214440728133</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1032245528064471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06543851922261187</v>
+        <v>0.06543851922261205</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2034761628105758</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.09458762062504462</v>
+        <v>0.09870713379974365</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06494182656748931</v>
+        <v>0.08043118566947496</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.008104787384655639</v>
+        <v>0.0100844607303395</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1239708837160766</v>
+        <v>0.1220502806830014</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02811589713399052</v>
+        <v>0.03042650301438034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.003455521294232826</v>
+        <v>-0.004623780571635628</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1323454622737018</v>
+        <v>0.1385887109181114</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.06059910605361618</v>
+        <v>0.06943478112417174</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.02801618169258266</v>
+        <v>0.02811667492763993</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3365040793862342</v>
+        <v>0.3450431154368237</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3140418088279898</v>
+        <v>0.3266671037723007</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2513080168196113</v>
+        <v>0.2557141140116136</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2855368129026215</v>
+        <v>0.2798367549639174</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1811774669680461</v>
+        <v>0.1766524984491599</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1400551942909539</v>
+        <v>0.1398292884977226</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2740682477081981</v>
+        <v>0.2748011985458552</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2069111215452673</v>
+        <v>0.2068867714976421</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.163391342875579</v>
+        <v>0.1629569698672207</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>7.476978585800865</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14.21951140451916</v>
+        <v>14.21951140451915</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>9.928033701240746</v>
@@ -1083,7 +1083,7 @@
         <v>3.398068279654465</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.505914351916005</v>
+        <v>2.505914351915994</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>9.410561367792402</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.264067498699568</v>
+        <v>3.87218990675252</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.864049658572434</v>
+        <v>2.625707097499179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.698990661468466</v>
+        <v>8.463895388438962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.85393837749094</v>
+        <v>4.838826834652962</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.956100463148076</v>
+        <v>-1.442723896882943</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.801257201322275</v>
+        <v>-2.630326602757166</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5.57894603088655</v>
+        <v>5.634731749870582</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.915373187542992</v>
+        <v>1.900770167085976</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.663413799611667</v>
+        <v>4.749922598965257</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.78077875145447</v>
+        <v>14.22423394671835</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.90607802659471</v>
+        <v>12.6142334389124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.5287875521509</v>
+        <v>19.60511351546844</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.39675872905665</v>
+        <v>15.47303659569072</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.460496990359195</v>
+        <v>8.462421395683686</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.242897970367841</v>
+        <v>7.422942447849668</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.08204690035721</v>
+        <v>13.28380789169781</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.200339089033001</v>
+        <v>9.450586672831919</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.06723474228787</v>
+        <v>12.38851888112883</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1920029745697525</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.365145955049404</v>
+        <v>0.3651459550494037</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.17153734418533</v>
@@ -1188,7 +1188,7 @@
         <v>0.05871208998610604</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0432973845193387</v>
+        <v>0.0432973845193385</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1942466467127967</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07750037789136419</v>
+        <v>0.09291281116062862</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.04602025562531828</v>
+        <v>0.06439236282529436</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2120811785614584</v>
+        <v>0.2090555463789847</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.08190122587391484</v>
+        <v>0.0782617475471834</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03076640578666388</v>
+        <v>-0.02423079483301277</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04596370238075741</v>
+        <v>-0.0441119821515973</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.112311150785095</v>
+        <v>0.111787787501546</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03830173933747841</v>
+        <v>0.03745235431435546</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.09411437815516809</v>
+        <v>0.09400221579329192</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3830521628276318</v>
+        <v>0.3877292298579456</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3596941726388273</v>
+        <v>0.3561613882625106</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5526941920693295</v>
+        <v>0.5529758711618615</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2828320310156889</v>
+        <v>0.2835719103665248</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1547982722549969</v>
+        <v>0.1503917851031235</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1319880611184244</v>
+        <v>0.1332903124472432</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2855432442168984</v>
+        <v>0.287044822767222</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1992325771814399</v>
+        <v>0.2040614236795436</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2604207562890374</v>
+        <v>0.2662315536421455</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>12.46428680514341</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14.71204461861295</v>
+        <v>14.71204461861296</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>13.04464276850382</v>
@@ -1306,7 +1306,7 @@
         <v>9.067340680456537</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>10.30079714075353</v>
+        <v>10.30079714075355</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.681443461027612</v>
+        <v>6.432922061626341</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.809397414917442</v>
+        <v>7.948250188316742</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.920776513337842</v>
+        <v>9.682379330143613</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.85543846708317</v>
+        <v>8.620132028382306</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.352254809457031</v>
+        <v>2.268117701586002</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.343173983666535</v>
+        <v>2.278351309997077</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>8.872490182113985</v>
+        <v>9.047331518575911</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>5.766096662373428</v>
+        <v>6.074640037341696</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.306986478470362</v>
+        <v>7.247477518120821</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.50215326289323</v>
+        <v>15.44113846617721</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.0536637080104</v>
+        <v>16.64405820833574</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.35681843641197</v>
+        <v>19.25932447918949</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.11519406721879</v>
+        <v>16.7622293189328</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.19843844572754</v>
+        <v>10.92476364907139</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.23826816175924</v>
+        <v>10.09931834596785</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>15.28403880520185</v>
+        <v>15.31049496037652</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.14891798502402</v>
+        <v>12.363009885991</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.39130350604275</v>
+        <v>13.3978566840192</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3063739981682223</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3616242149670162</v>
+        <v>0.3616242149670165</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2199169320228991</v>
@@ -1411,7 +1411,7 @@
         <v>0.1797182569567327</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2041658489121543</v>
+        <v>0.2041658489121547</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1555281974799312</v>
+        <v>0.1523029312016485</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1825162238350674</v>
+        <v>0.1861555765807792</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2349649881728151</v>
+        <v>0.2225618013109711</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1439244660372502</v>
+        <v>0.1411696554091035</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02318571356469198</v>
+        <v>0.03649897894832874</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03906873214455939</v>
+        <v>0.03684830393026744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1694306778246491</v>
+        <v>0.173556300307674</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1107091471620233</v>
+        <v>0.1153380387851149</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1385378825576866</v>
+        <v>0.1379460071664102</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4012355966616157</v>
+        <v>0.4040533971291282</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.444161813304981</v>
+        <v>0.426021356076088</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5002261522607629</v>
+        <v>0.4988044786874041</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3004282813213587</v>
+        <v>0.2948223540443458</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1799158178688625</v>
+        <v>0.1891979518516509</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1805125965013042</v>
+        <v>0.176385190603454</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3143830279935247</v>
+        <v>0.3157819103530972</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2485194822609352</v>
+        <v>0.2505020845959727</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2733789743327907</v>
+        <v>0.2719382130922388</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.500101489645679</v>
+        <v>7.329105624392446</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.834626463519265</v>
+        <v>6.894355379805331</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.073178799686099</v>
+        <v>9.160985579409846</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9.362120515709845</v>
+        <v>9.231536111649405</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.230333492444148</v>
+        <v>4.076273367638859</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.558055826741622</v>
+        <v>2.560327246027594</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>8.994865906488421</v>
+        <v>8.951571583128752</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>5.998266010576126</v>
+        <v>5.896313682113565</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.477634912541996</v>
+        <v>6.444267469888326</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.48714151628475</v>
+        <v>12.09512740543475</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.57142669428988</v>
+        <v>11.69503825749717</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.19416873720078</v>
+        <v>14.39131693830822</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.8490073335992</v>
+        <v>13.8916077099536</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.846391886908876</v>
+        <v>8.65520082676662</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.075966371849114</v>
+        <v>6.927405833371093</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.45105357475519</v>
+        <v>12.51590819142491</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.490249214621878</v>
+        <v>9.609412364471121</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.904982485028128</v>
+        <v>9.936114870956787</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1786188981653326</v>
+        <v>0.176571500498674</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.164618513874365</v>
+        <v>0.1666889776798483</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2154152624719787</v>
+        <v>0.2214905069617581</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1565484266171998</v>
+        <v>0.1548792697059758</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.06998175387042661</v>
+        <v>0.0678323869914399</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04286586841082676</v>
+        <v>0.04236321552080114</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1773254834147076</v>
+        <v>0.1767674634364037</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1182715747557283</v>
+        <v>0.1161247941105307</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1280374000778038</v>
+        <v>0.1269209048511147</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3195526898118533</v>
+        <v>0.3094861344521156</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2954381472803777</v>
+        <v>0.2986005736496697</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.358961707463241</v>
+        <v>0.3626303850690663</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2447394494714573</v>
+        <v>0.241922525890518</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1540299236318339</v>
+        <v>0.1503901239504668</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1226157926884951</v>
+        <v>0.1212309180102659</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.256063363303686</v>
+        <v>0.2560936754475718</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1937732740728787</v>
+        <v>0.1968636432203328</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2028034841343971</v>
+        <v>0.203983840899566</v>
       </c>
     </row>
     <row r="34">
